--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,20 +14,30 @@
     <sheet name="ordenes_pedido" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,12 +51,42 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -60,14 +99,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -430,43 +475,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>contraseña</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>rol</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fecha_registro</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Juan Perez</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>benjamin@example.com</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:39:37</t>
         </is>
       </c>
     </row>
@@ -481,13 +556,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.28515625" customWidth="1" min="2" max="2"/>
+    <col width="21.5703125" customWidth="1" min="3" max="3"/>
+    <col width="18.28515625" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="6"/>
+    <col width="19.7109375" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -518,6 +600,141 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_actualizado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Leche</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Leche entera 1L</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Pan integral</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Huevos</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Docena de huevos</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Queso</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Queso fresco 500g</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mantequilla</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mantequilla sin sal 200g</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
         </is>
       </c>
     </row>
@@ -532,13 +749,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="26.42578125" customWidth="1" min="2" max="2"/>
+    <col width="28.140625" customWidth="1" min="3" max="3"/>
+    <col width="24.28515625" customWidth="1" min="4" max="4"/>
+    <col width="27.140625" customWidth="1" min="5" max="5"/>
+    <col width="24.28515625" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -553,18 +777,213 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>cantidad_disponible</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>precio_por_unidad</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>producto_id</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>fecha_agregado</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Leche cruda</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Envase de cartón</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Harina integral</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Levadura</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Huevos frescos</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sal</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leche fresca</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cultura bacteriana</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crema de leche</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sal refinada</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -578,13 +997,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="20.5703125" customWidth="1" min="2" max="2"/>
+    <col width="18.5703125" customWidth="1" min="3" max="3"/>
+    <col width="21.140625" customWidth="1" min="4" max="4"/>
+    <col width="16.85546875" customWidth="1" min="5" max="5"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -594,27 +1020,171 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>nombre_empleado</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>descripcion</t>
+          <t>costo_por_hora</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>precio</t>
+          <t>producto_id</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>stock</t>
+          <t>horas_requeridas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Luis</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sofía</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carlos</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Miguel</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:37:03</t>
         </is>
       </c>
     </row>
@@ -629,13 +1199,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.5703125" customWidth="1" min="2" max="2"/>
+    <col width="14.5703125" customWidth="1" min="3" max="3"/>
+    <col width="24.42578125" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -645,22 +1220,89 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>tipo</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>monto</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>descripcion</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>monto</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>fecha_agregado</t>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Electricidad</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Costo mensual de electricidad</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alquiler</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Alquiler mensual del local</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maquinaria</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Costo por uso de maquinaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Agua</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Costo de agua mensual</t>
         </is>
       </c>
     </row>
@@ -675,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,29 +1326,126 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>id_usuario</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>productos</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>fecha_pedido</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>estado</t>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>usuario_id</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>producto_id</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>cantidad</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>total_costos_directos</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>total_costos_indirectos</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>total_costos</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>precio_unitario</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>fecha_entrega</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>fecha_creacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" t="n">
+        <v>167</v>
+      </c>
+      <c r="F2" t="n">
+        <v>700</v>
+      </c>
+      <c r="G2" t="n">
+        <v>867</v>
+      </c>
+      <c r="H2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-12-15 14:43:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>700</v>
+      </c>
+      <c r="G3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75.15000000000001</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:06:32</t>
         </is>
       </c>
     </row>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -752,45 +752,38 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="26.42578125" customWidth="1" min="2" max="2"/>
-    <col width="28.140625" customWidth="1" min="3" max="3"/>
-    <col width="24.28515625" customWidth="1" min="4" max="4"/>
-    <col width="27.140625" customWidth="1" min="5" max="5"/>
-    <col width="24.28515625" customWidth="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>cantidad_disponible</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>precio_por_unidad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -882,7 +875,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -901,7 +894,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0.05</v>
@@ -1317,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,6 +1442,294 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>127.45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>700</v>
+      </c>
+      <c r="G4" t="n">
+        <v>827.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>827.45</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:57:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>123.35</v>
+      </c>
+      <c r="F5" t="n">
+        <v>700</v>
+      </c>
+      <c r="G5" t="n">
+        <v>823.35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>411.675</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:57:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>700</v>
+      </c>
+      <c r="G6" t="n">
+        <v>813.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>162.62</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>700</v>
+      </c>
+      <c r="G7" t="n">
+        <v>800.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>133.4666666666667</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>700</v>
+      </c>
+      <c r="G8" t="n">
+        <v>780.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>78.03</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>700</v>
+      </c>
+      <c r="G9" t="n">
+        <v>778.25</v>
+      </c>
+      <c r="H9" t="n">
+        <v>778.25</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>68.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>700</v>
+      </c>
+      <c r="G10" t="n">
+        <v>768.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>153.65</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>700</v>
+      </c>
+      <c r="G11" t="n">
+        <v>766.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>766.2</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-12-15 17:58:55</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,30 +15,20 @@
     <sheet name="ordenes_pedido" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -51,42 +42,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -99,20 +60,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -481,35 +436,35 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>contraseña</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rol</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_registro</t>
         </is>
@@ -541,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:39:37</t>
+          <t>2024-12-16 07:48:02</t>
         </is>
       </c>
     </row>
@@ -556,20 +511,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.28515625" customWidth="1" min="2" max="2"/>
-    <col width="21.5703125" customWidth="1" min="3" max="3"/>
-    <col width="18.28515625" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="6"/>
-    <col width="19.7109375" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -579,7 +527,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nombre</t>
+          <t>nombre_producto</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -600,11 +548,6 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>fecha_actualizado</t>
         </is>
       </c>
     </row>
@@ -630,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -656,7 +599,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -682,7 +625,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -708,7 +651,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -734,7 +677,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -758,32 +701,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>nombre</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>nombre_materia_prima</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>cantidad_disponible</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>precio_por_unidad</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -806,6 +749,11 @@
       </c>
       <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -826,6 +774,11 @@
       <c r="E3" t="n">
         <v>1</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -837,13 +790,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -856,13 +814,18 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
         <v>0.2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -875,13 +838,18 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -894,13 +862,18 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>0.05</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -921,6 +894,11 @@
       <c r="E8" t="n">
         <v>4</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -940,6 +918,11 @@
       <c r="E9" t="n">
         <v>4</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -959,6 +942,11 @@
       <c r="E10" t="n">
         <v>5</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -977,6 +965,11 @@
       </c>
       <c r="E11" t="n">
         <v>5</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-12-16 07:47:47</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -993,17 +986,10 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="20.5703125" customWidth="1" min="2" max="2"/>
-    <col width="18.5703125" customWidth="1" min="3" max="3"/>
-    <col width="21.140625" customWidth="1" min="4" max="4"/>
-    <col width="16.85546875" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1057,7 +1043,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1067,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1091,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1115,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1139,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1163,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-12-15 14:37:03</t>
+          <t>2024-12-16 07:47:47</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1184,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.5703125" customWidth="1" min="2" max="2"/>
-    <col width="14.5703125" customWidth="1" min="3" max="3"/>
-    <col width="24.42578125" customWidth="1" min="4" max="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1310,7 +1291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,52 +1300,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>usuario_id</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cantidad</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total_costos_directos</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_costos_indirectos</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>total_costos</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>precio_unitario</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fecha_entrega</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>fecha_creacion</t>
         </is>
@@ -1378,22 +1359,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>167</v>
+        <v>44.5</v>
       </c>
       <c r="F2" t="n">
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>867</v>
+        <v>744.5</v>
       </c>
       <c r="H2" t="n">
-        <v>86.7</v>
+        <v>74.45</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1402,7 +1383,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-12-15 14:43:37</t>
+          <t>2024-12-16 07:48:12</t>
         </is>
       </c>
     </row>
@@ -1414,22 +1395,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
       <c r="E3" t="n">
-        <v>51.5</v>
+        <v>125.4</v>
       </c>
       <c r="F3" t="n">
         <v>700</v>
       </c>
       <c r="G3" t="n">
-        <v>751.5</v>
+        <v>825.4</v>
       </c>
       <c r="H3" t="n">
-        <v>75.15000000000001</v>
+        <v>412.7</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1438,7 +1419,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-12-15 17:06:32</t>
+          <t>2024-12-16 07:48:51</t>
         </is>
       </c>
     </row>
@@ -1453,19 +1434,19 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>127.45</v>
+        <v>121.3</v>
       </c>
       <c r="F4" t="n">
         <v>700</v>
       </c>
       <c r="G4" t="n">
-        <v>827.45</v>
+        <v>821.3</v>
       </c>
       <c r="H4" t="n">
-        <v>827.45</v>
+        <v>410.65</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -1474,259 +1455,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-12-15 17:57:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>123.35</v>
-      </c>
-      <c r="F5" t="n">
-        <v>700</v>
-      </c>
-      <c r="G5" t="n">
-        <v>823.35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>411.675</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:57:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>700</v>
-      </c>
-      <c r="G6" t="n">
-        <v>813.1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>162.62</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>100.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>700</v>
-      </c>
-      <c r="G7" t="n">
-        <v>800.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>133.4666666666667</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>80.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>700</v>
-      </c>
-      <c r="G8" t="n">
-        <v>780.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>78.03</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>78.25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>700</v>
-      </c>
-      <c r="G9" t="n">
-        <v>778.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>778.25</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>68.25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>700</v>
-      </c>
-      <c r="G10" t="n">
-        <v>768.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>153.65</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>700</v>
-      </c>
-      <c r="G11" t="n">
-        <v>766.2</v>
-      </c>
-      <c r="H11" t="n">
-        <v>766.2</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2024-12-15 17:58:55</t>
+          <t>2024-12-16 08:01:21</t>
         </is>
       </c>
     </row>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,20 +14,25 @@
     <sheet name="ordenes_pedido" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -42,12 +46,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -60,14 +79,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -436,7 +458,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -496,7 +518,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 07:48:02</t>
+          <t>2024-12-16 09:05:54</t>
         </is>
       </c>
     </row>
@@ -511,7 +533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +542,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nombre_producto</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>descripcion</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>precio_unitario</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>stock</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -557,23 +579,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leche</t>
+          <t>a</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leche entera 1L</t>
+          <t>a</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:03:53</t>
         </is>
       </c>
     </row>
@@ -583,23 +605,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Pan Integral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Pan integral</t>
+          <t>Pan integral de 500g</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:14:46</t>
         </is>
       </c>
     </row>
@@ -609,75 +631,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Huevos</t>
+          <t>Pan Integral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Docena de huevos</t>
+          <t>Pan integral de 500g</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Queso</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Queso fresco 500g</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>20</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mantequilla</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Mantequilla sin sal 200g</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:14:48</t>
         </is>
       </c>
     </row>
@@ -692,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,32 +671,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nombre_materia_prima</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>cantidad_disponible</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>precio_por_unidad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -736,23 +706,21 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Leche cruda</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:04:51</t>
         </is>
       </c>
     </row>
@@ -762,21 +730,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Envase de cartón</t>
+          <t>pasas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:14:58</t>
         </is>
       </c>
     </row>
@@ -786,189 +754,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Harina integral</t>
+          <t>pasas</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Levadura</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Huevos frescos</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sal</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>26</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Leche fresca</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cultura bacteriana</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Crema de leche</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sal refinada</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>15</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:15:00</t>
         </is>
       </c>
     </row>
@@ -983,7 +783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,32 +792,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nombre_empleado</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>costo_por_hora</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>horas_requeridas</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>horas_requeridas</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -1029,21 +829,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>juan</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:04:40</t>
         </is>
       </c>
     </row>
@@ -1053,21 +853,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana</t>
+          <t>Carlos González Fernado</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:14:21</t>
         </is>
       </c>
     </row>
@@ -1077,93 +877,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Carlos González Fernado</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sofía</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Carlos</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Miguel</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2024-12-16 07:47:47</t>
+          <t>2024-12-16 09:14:33</t>
         </is>
       </c>
     </row>
@@ -1178,13 +906,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1214,69 +942,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Electricidad</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>150</v>
+          <t>luz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Costo mensual de electricidad</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Alquiler</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>300</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Alquiler mensual del local</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maquinaria</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>200</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Costo por uso de maquinaria</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Agua</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Costo de agua mensual</t>
+          <t>ll</t>
         </is>
       </c>
     </row>
@@ -1291,7 +967,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,52 +976,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>usuario_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>cantidad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>total_costos_directos</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>total_costos_indirectos</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>total_costos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>precio_unitario</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>fecha_entrega</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>fecha_creacion</t>
         </is>
@@ -1359,22 +1035,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>44.5</v>
+        <v>143.08</v>
       </c>
       <c r="F2" t="n">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>744.5</v>
+        <v>144.08</v>
       </c>
       <c r="H2" t="n">
-        <v>74.45</v>
+        <v>144.08</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -1383,7 +1059,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-12-16 07:48:12</t>
+          <t>2024-12-16 09:15:12</t>
         </is>
       </c>
     </row>
@@ -1395,22 +1071,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>125.4</v>
+        <v>141.06</v>
       </c>
       <c r="F3" t="n">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>825.4</v>
+        <v>142.06</v>
       </c>
       <c r="H3" t="n">
-        <v>412.7</v>
+        <v>142.06</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -1419,43 +1095,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-12-16 07:48:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>121.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>700</v>
-      </c>
-      <c r="G4" t="n">
-        <v>821.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>410.65</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-12-16 08:01:21</t>
+          <t>2024-12-16 09:18:09</t>
         </is>
       </c>
     </row>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -452,41 +452,41 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>contraseña</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>rol</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>fecha_registro</t>
         </is>
@@ -506,19 +506,47 @@
           <t>benjamin@example.com</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-12-16 09:05:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>a@g.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a@g.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>usuario</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:05:54</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-16 09:44:10</t>
         </is>
       </c>
     </row>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,19 +534,47 @@
           <t>a@g.com</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>usuario</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-12-16 09:44:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>g@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>usuario</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:44:10</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-12-16 10:09:46</t>
         </is>
       </c>
     </row>

--- a/Backend/app/data/data.xlsx
+++ b/Backend/app/data/data.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,25 +15,20 @@
     <sheet name="ordenes_pedido" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -46,27 +42,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -79,17 +60,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -452,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,120 +439,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>nombre</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>contraseña</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rol</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_registro</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Juan Perez</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>benjamin@example.com</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>usuario</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:05:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>a@g.com</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>a@g.com</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>123456</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>usuario</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:44:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>g@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>usuario</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-12-16 10:09:46</t>
         </is>
       </c>
     </row>
@@ -589,7 +481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,32 +490,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>nombre_producto</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>descripcion</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>precio_unitario</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>stock</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -640,70 +532,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 09:03:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pan Integral</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Pan integral de 500g</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>150</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:14:46</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pan Integral</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pan integral de 500g</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>150</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:14:48</t>
+          <t>2024-12-16 11:21:55</t>
         </is>
       </c>
     </row>
@@ -718,7 +562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,32 +571,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>nombre_materia_prima</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>cantidad_disponible</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>precio_por_unidad</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -762,69 +606,29 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 09:04:51</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pasas</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:14:58</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pasas</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:15:00</t>
+          <t>2024-12-16 11:22:32</t>
         </is>
       </c>
     </row>
@@ -839,7 +643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,32 +652,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>nombre_empleado</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>costo_por_hora</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>horas_requeridas</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>fecha_agregado</t>
         </is>
@@ -885,69 +689,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>juan</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-12-16 09:04:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Carlos González Fernado</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:14:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Carlos González Fernado</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:14:33</t>
+          <t>2024-12-16 11:22:09</t>
         </is>
       </c>
     </row>
@@ -968,7 +730,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -998,17 +760,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>luz</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ll</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
@@ -1023,7 +785,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,126 +794,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>usuario_id</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>producto_id</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>cantidad</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total_costos_directos</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_costos_indirectos</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>total_costos</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>precio_unitario</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fecha_entrega</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>fecha_creacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>143.08</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>144.08</v>
-      </c>
-      <c r="H2" t="n">
-        <v>144.08</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>141.06</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>142.06</v>
-      </c>
-      <c r="H3" t="n">
-        <v>142.06</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-12-20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-12-16 09:18:09</t>
         </is>
       </c>
     </row>
